--- a/xlsx/聖露西亞_intext.xlsx
+++ b/xlsx/聖露西亞_intext.xlsx
@@ -23,13 +23,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%9B%A7%E8%A5%BF%E4%BA%9E%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖盧西亞島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_聖露西亞</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
+  </si>
+  <si>
+    <t>圣卢西亚 (消歧义)</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_南非_聖露西亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -3071,7 +3071,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -4086,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4115,7 +4115,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4144,7 +4144,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -13598,7 +13598,7 @@
         <v>728</v>
       </c>
       <c r="G381" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
